--- a/currentbuild/CodeSystem-decisiontemplate.xlsx
+++ b/currentbuild/CodeSystem-decisiontemplate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T11:47:09+00:00</t>
+    <t>2024-09-10T12:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-decisiontemplate.xlsx
+++ b/currentbuild/CodeSystem-decisiontemplate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:02:36+00:00</t>
+    <t>2024-09-10T12:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-decisiontemplate.xlsx
+++ b/currentbuild/CodeSystem-decisiontemplate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.6</t>
+    <t>0.9.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:10:45+00:00</t>
+    <t>2024-09-11T05:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-decisiontemplate.xlsx
+++ b/currentbuild/CodeSystem-decisiontemplate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T05:52:58+00:00</t>
+    <t>2024-09-11T06:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-decisiontemplate.xlsx
+++ b/currentbuild/CodeSystem-decisiontemplate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.7</t>
+    <t>0.9.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T06:02:16+00:00</t>
+    <t>2024-11-07T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,6 +86,7 @@
   <si>
     <t xml:space="preserve">These are templates with various justifications that can be used as a basis for accessing the patient's medical record at hospitals that utilize DIPS as their journal system.
 Templates that user, if authorized, can select manually as reason for accessing patient's medical record are marked as '(Eksplisitt mal)'.
+NB! This code system is currently vendor specific (DIPS) and defined in this profile temporarily until a more suitable place is found. 
 </t>
   </si>
   <si>
